--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value345.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value345.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.510877384287895</v>
+        <v>0.7581236958503723</v>
       </c>
       <c r="B1">
-        <v>4.067106285873749</v>
+        <v>1.422454953193665</v>
       </c>
       <c r="C1">
-        <v>2.205650272073178</v>
+        <v>5.391351699829102</v>
       </c>
       <c r="D1">
-        <v>0.9857640268740046</v>
+        <v>3.174206733703613</v>
       </c>
       <c r="E1">
-        <v>0.7147532734914677</v>
+        <v>1.514097332954407</v>
       </c>
     </row>
   </sheetData>
